--- a/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4AE58C-D623-47BF-AB7F-5C404FD6703A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AE5AB-5816-4FA2-9930-E799F3C2D3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="DE_sampen_d2" sheetId="3" r:id="rId3"/>
     <sheet name="DE_sampen_d3" sheetId="4" r:id="rId4"/>
     <sheet name="DE_sampen_d4" sheetId="5" r:id="rId5"/>
+    <sheet name="DE_sampen_multi_attri" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1192,7 +1193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B284360-955E-4F01-BC41-5C68DD41BB97}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -1392,4 +1393,17 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92CB351-5C90-4E3F-8787-EBB99C6DBE25}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA7AE5AB-5816-4FA2-9930-E799F3C2D3E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925DDC1-2428-49FF-92EF-92FF2020721C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+  <si>
+    <t>acc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>acc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -615,10 +627,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D54D3F-2A9A-40E0-96A8-7AA698201B6A}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -797,6 +809,20 @@
       </c>
       <c r="C36">
         <v>84.523799999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>87.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>91.33080666666666</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>83.690299999999993</v>
       </c>
     </row>
   </sheetData>
@@ -1397,13 +1423,207 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92CB351-5C90-4E3F-8787-EBB99C6DBE25}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>93.75</v>
+      </c>
+      <c r="B2">
+        <v>96.153800000000004</v>
+      </c>
+      <c r="C2">
+        <v>91.463399999999993</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>89.375</v>
+      </c>
+      <c r="B4">
+        <v>91.358000000000004</v>
+      </c>
+      <c r="C4">
+        <v>87.341800000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>88.75</v>
+      </c>
+      <c r="B6">
+        <v>88.311700000000002</v>
+      </c>
+      <c r="C6">
+        <v>89.156599999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>86.875</v>
+      </c>
+      <c r="B8">
+        <v>90.123500000000007</v>
+      </c>
+      <c r="C8">
+        <v>83.544300000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>86.875</v>
+      </c>
+      <c r="B10">
+        <v>92.771100000000004</v>
+      </c>
+      <c r="C10">
+        <v>80.519499999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>89.375</v>
+      </c>
+      <c r="B15">
+        <v>90.243899999999996</v>
+      </c>
+      <c r="C15">
+        <v>88.461500000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>89.375</v>
+      </c>
+      <c r="B17">
+        <v>88.311700000000002</v>
+      </c>
+      <c r="C17">
+        <v>90.361400000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>92.5</v>
+      </c>
+      <c r="B19">
+        <v>94.871799999999993</v>
+      </c>
+      <c r="C19">
+        <v>90.243899999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>91.875</v>
+      </c>
+      <c r="B21">
+        <v>98.75</v>
+      </c>
+      <c r="C21">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>86.875</v>
+      </c>
+      <c r="B23">
+        <v>92.771100000000004</v>
+      </c>
+      <c r="C23">
+        <v>80.519499999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>91.875</v>
+      </c>
+      <c r="B28">
+        <v>96.551699999999997</v>
+      </c>
+      <c r="C28">
+        <v>86.301400000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>91.25</v>
+      </c>
+      <c r="B30">
+        <v>94.252899999999997</v>
+      </c>
+      <c r="C30">
+        <v>87.671199999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>88.75</v>
+      </c>
+      <c r="B34">
+        <v>91.025599999999997</v>
+      </c>
+      <c r="C34">
+        <v>86.585400000000007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>85.625</v>
+      </c>
+      <c r="B36">
+        <v>92.647099999999995</v>
+      </c>
+      <c r="C36">
+        <v>80.434799999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>89.541666666666671</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>92.542926666666659</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>86.506979999999984</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
+++ b/结果/KNN分类/样本熵/KNN_DE_sampen.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\大学\大四学年（2019-2020）\下学期\毕设\结果\KNN分类\样本熵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F925DDC1-2428-49FF-92EF-92FF2020721C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25F8FC6-320E-4C8B-89D3-5E3D1C645F60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
+    <workbookView xWindow="11616" yWindow="156" windowWidth="13620" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{265C5AC1-636B-4562-A2E2-D010E136F6EA}"/>
   </bookViews>
   <sheets>
     <sheet name="DE_sampen" sheetId="1" r:id="rId1"/>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4741E87B-C3D3-4C4C-BF4E-36BCF345D7CA}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -617,6 +617,20 @@
       </c>
       <c r="C36">
         <v>63.157899999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>64.75</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>68.327413333333354</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>61.415326666666672</v>
       </c>
     </row>
   </sheetData>
@@ -629,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D54D3F-2A9A-40E0-96A8-7AA698201B6A}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -833,10 +847,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820BEAC3-8158-4324-8F15-FA8D4321A963}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1029,20 @@
       </c>
       <c r="C36">
         <v>73.417699999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>78.625</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>87.973279999999988</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>69.192459999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1025,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD1F7144-152E-4C34-ABD3-A28E4E56C02D}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:C37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1207,6 +1235,20 @@
       </c>
       <c r="C36">
         <v>59.493699999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <f t="shared" ref="A37:C37" si="0">AVERAGE(A2:A36)</f>
+        <v>62.666666666666664</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>63.967640000000003</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="0"/>
+        <v>61.690719999999992</v>
       </c>
     </row>
   </sheetData>
@@ -1425,7 +1467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E92CB351-5C90-4E3F-8787-EBB99C6DBE25}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C36"/>
     </sheetView>
   </sheetViews>
